--- a/employeeHubImport.xlsx
+++ b/employeeHubImport.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">152-09-2094</t>
   </si>
   <si>
-    <t xml:space="preserve">Allannxxxx</t>
+    <t xml:space="preserve">Allannxg</t>
   </si>
   <si>
     <t xml:space="preserve">Papaminas</t>
@@ -1510,7 +1510,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.05859375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17"/>
